--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48FF01-B751-48E5-B871-3072FB77162C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A196E8-123E-488D-B577-B364E77F7EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
@@ -222,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +233,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +274,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,12 +592,13 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="56.1796875" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" customWidth="1"/>
     <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" customWidth="1"/>
@@ -636,6 +644,7 @@
       <c r="F2" s="1">
         <v>3</v>
       </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">

--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\workspace\700\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A196E8-123E-488D-B577-B364E77F7EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6F24F-5889-4AA7-90A7-9AFC09602CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -160,13 +160,86 @@
   </si>
   <si>
     <t>API misuse</t>
+  </si>
+  <si>
+    <t>Patterns of bug</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>decode_jpg with direct file path</t>
+  </si>
+  <si>
+    <t>look for instances of decode_jpg and ensure tf.read_file( file path) is before the file path</t>
+  </si>
+  <si>
+    <t>sess.run only accepting tensors</t>
+  </si>
+  <si>
+    <t>check the inputs into sess.run are tensors if not convert them to tensors using tf.convert_to_tensor</t>
+  </si>
+  <si>
+    <t>tf.get_collection("output")[0] not paired with  tf.placeholder('float)</t>
+  </si>
+  <si>
+    <t>if tf.get_collection is called look for another instance that it's called if not add in a line looking for the variable name before tf.place holder and write x =tf.get_collection("placeholder")[0]</t>
+  </si>
+  <si>
+    <t>depreciated api</t>
+  </si>
+  <si>
+    <t>look for depreciated calls and replce with updated one refer to link</t>
+  </si>
+  <si>
+    <t>.append used in conjunction with .fit</t>
+  </si>
+  <si>
+    <t>split the two calls into different lines NNmodelList.append(nn_model) and
+nn_model.fit(i,j)</t>
+  </si>
+  <si>
+    <t>torchvision.models then torch.jit.trace models are default in training mode</t>
+  </si>
+  <si>
+    <t>look for cases pattern occurs then place variablename.eval() between torchvision.models and torch.jit.trace to change to evaluation mode</t>
+  </si>
+  <si>
+    <t>rnn.state_dict(variable)  not accessing within dictionary but dictionary itself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for rnn.load_state_dict and check variable within is an element within a dictionary or acessing an element within a dictionary </t>
+  </si>
+  <si>
+    <t>tf.merge_all_summaries() dangerious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use tf.merge_sumarry and specify the summaries wished to be merged</t>
+  </si>
+  <si>
+    <t>trainset and train Transform not used inconjuntion with dateloader</t>
+  </si>
+  <si>
+    <t>add dataloader = torch.utils.data.DataLoader(trainset, batch_size=32, shuffle=False, num_workers=4) when trainset and train transform are found with no data loader</t>
+  </si>
+  <si>
+    <t>tf.unstack used with incorrect batch shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when tf.unstack is called ensure batch_shape as an argument to keras.topology.input </t>
+  </si>
+  <si>
+    <t>mapping with map_location on torch.load only takes 1 argument not two</t>
+  </si>
+  <si>
+    <t>Check map_location only takes one argument, if it takes two remap to second  specified argument</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +294,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -254,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +354,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,23 +672,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="56.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="5" max="5" width="0.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -624,8 +709,14 @@
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +736,14 @@
         <v>3</v>
       </c>
       <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +762,14 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,8 +788,14 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -705,8 +814,14 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -725,8 +840,14 @@
       <c r="F6" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -746,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -765,8 +886,14 @@
       <c r="F8" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -785,8 +912,14 @@
       <c r="F9" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,8 +938,14 @@
       <c r="F10" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -826,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -845,8 +984,14 @@
       <c r="F12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,8 +1010,14 @@
       <c r="F13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -888,8 +1039,14 @@
       <c r="G14" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -954,5 +1111,6 @@
     <hyperlink ref="B16" r:id="rId15" xr:uid="{C9EED821-5573-4E22-AF9D-80EBA6A03435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\workspace\700\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6F24F-5889-4AA7-90A7-9AFC09602CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33782860-FB1A-4DB8-9BD3-B95F433E300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView xWindow="11796" yWindow="5748" windowWidth="17280" windowHeight="8964" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Check map_location only takes one argument, if it takes two remap to second  specified argument</t>
+  </si>
+  <si>
+    <t>ID for study</t>
   </si>
 </sst>
 </file>
@@ -672,443 +675,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
-    <col min="5" max="5" width="0.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="56.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="0.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="59.21875" customWidth="1"/>
+    <col min="11" max="11" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="I2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
+      <c r="D5" s="9">
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
         <v>54</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="10">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>56</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
         <v>60</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
         <v>62</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9F32EEFD-9952-44B5-9A55-FEE7FB26D36D}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E8FE1926-2BA7-413F-9D48-91AB3AC97263}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6E3A92AF-E7D1-4112-837A-F3306DB3195F}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{2EDEF199-8D88-4EF5-88FC-40B252A21543}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{4473FB8D-4251-44A7-80FA-C71647CE5D27}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{4A76E0A1-E000-4349-A0FF-AEC5B0C8A7AD}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{EB8B04FE-5DFD-4D3C-84FA-825D31386BAB}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{DE57B15A-CF81-4263-ADBA-C227C683DEA9}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{99567DBD-C430-48A6-954E-EF426A9E9682}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{627809DA-1421-4A30-A5F8-CCF41458450E}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{2E53324D-9999-4859-AAB4-A3D85878FB76}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{C9062849-FC51-451C-9FE0-131F347D3745}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{FA420AA9-8552-4CDD-BBB5-F42509B7E553}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{C5CD686A-1550-42AA-BC6A-F51039D638C5}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{C9EED821-5573-4E22-AF9D-80EBA6A03435}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9F32EEFD-9952-44B5-9A55-FEE7FB26D36D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E8FE1926-2BA7-413F-9D48-91AB3AC97263}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6E3A92AF-E7D1-4112-837A-F3306DB3195F}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{2EDEF199-8D88-4EF5-88FC-40B252A21543}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{4473FB8D-4251-44A7-80FA-C71647CE5D27}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{4A76E0A1-E000-4349-A0FF-AEC5B0C8A7AD}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{EB8B04FE-5DFD-4D3C-84FA-825D31386BAB}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{DE57B15A-CF81-4263-ADBA-C227C683DEA9}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{99567DBD-C430-48A6-954E-EF426A9E9682}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{627809DA-1421-4A30-A5F8-CCF41458450E}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{2E53324D-9999-4859-AAB4-A3D85878FB76}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{C9062849-FC51-451C-9FE0-131F347D3745}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{FA420AA9-8552-4CDD-BBB5-F42509B7E553}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{C5CD686A-1550-42AA-BC6A-F51039D638C5}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{C9EED821-5573-4E22-AF9D-80EBA6A03435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>

--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\workspace\700\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33782860-FB1A-4DB8-9BD3-B95F433E300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78041616-F583-4BBB-8C57-768662A390AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11796" yWindow="5748" windowWidth="17280" windowHeight="8964" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -236,6 +236,96 @@
   </si>
   <si>
     <t>ID for study</t>
+  </si>
+  <si>
+    <t>number of projects</t>
+  </si>
+  <si>
+    <t>Stack overflow likes</t>
+  </si>
+  <si>
+    <t>Stack overflow views</t>
+  </si>
+  <si>
+    <t>5k views</t>
+  </si>
+  <si>
+    <t>years up</t>
+  </si>
+  <si>
+    <t>3 years 7 months</t>
+  </si>
+  <si>
+    <t>4k</t>
+  </si>
+  <si>
+    <t>4 years 5 months</t>
+  </si>
+  <si>
+    <t>6k</t>
+  </si>
+  <si>
+    <t>4 years 4 months</t>
+  </si>
+  <si>
+    <t>44k</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>9k</t>
+  </si>
+  <si>
+    <t>1 year 7 months</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>3 years 5 months</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>2 years 8 months</t>
+  </si>
+  <si>
+    <t>5 years 1 month</t>
+  </si>
+  <si>
+    <t>3k</t>
+  </si>
+  <si>
+    <t>2 years  9 months</t>
+  </si>
+  <si>
+    <t>2 years 9 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7k </t>
+  </si>
+  <si>
+    <t>2  years 4 months</t>
+  </si>
+  <si>
+    <t>5 years 8 months</t>
+  </si>
+  <si>
+    <t>Additional Issues</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/56328630/pytorch-masked-fill-why-cant-i-mask-all-zeros</t>
+  </si>
+  <si>
+    <t>wrong use of mask</t>
+  </si>
+  <si>
+    <t>d== 0 should be the assigning variable</t>
+  </si>
+  <si>
+    <t>1 year</t>
   </si>
 </sst>
 </file>
@@ -291,17 +381,18 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF242729"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -333,8 +424,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -355,14 +447,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,25 +768,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
-    <col min="6" max="6" width="0.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="59.21875" customWidth="1"/>
-    <col min="11" max="11" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="0.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -721,8 +817,20 @@
       <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -744,15 +852,24 @@
       <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -780,8 +897,17 @@
       <c r="K3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -809,8 +935,17 @@
       <c r="K4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -835,11 +970,20 @@
       <c r="J5" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>119</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -864,11 +1008,20 @@
       <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -890,8 +1043,17 @@
       <c r="G7" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -919,8 +1081,17 @@
       <c r="K8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -948,8 +1119,17 @@
       <c r="K9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -971,14 +1151,23 @@
       <c r="G10" s="10">
         <v>3</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>58</v>
       </c>
       <c r="K10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1000,8 +1189,17 @@
       <c r="G11" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1029,8 +1227,17 @@
       <c r="K12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1058,8 +1265,17 @@
       <c r="K13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1090,15 +1306,24 @@
       <c r="K14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="3">
@@ -1116,8 +1341,17 @@
       <c r="H15" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1141,6 +1375,34 @@
       </c>
       <c r="H16" s="10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\workspace\700\DL-BUG-FINDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78041616-F583-4BBB-8C57-768662A390AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0CB8E0-E509-4A62-83A6-0EF422705F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Github" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -326,6 +327,102 @@
   </si>
   <si>
     <t>1 year</t>
+  </si>
+  <si>
+    <t>https://github.com/backstopmedia/tensorflowbook/issues/22</t>
+  </si>
+  <si>
+    <t>https://github.com/llSourcell/Pokemon_GAN/issues/9</t>
+  </si>
+  <si>
+    <t>Uses decode_jpeg to decode png</t>
+  </si>
+  <si>
+    <t>https://github.com/isarandi/metrabs/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/tensorflow/issues/13583</t>
+  </si>
+  <si>
+    <t>Uses decode_jpeg to decode wrong format</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/52092881/why-can-tf-image-decode-jpeg-decode-a-png</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/models/issues/597</t>
+  </si>
+  <si>
+    <t>Possibly use decode_image or convert beforehand</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/tensorflow/issues/9786</t>
+  </si>
+  <si>
+    <t>PNG Issue</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Read file issue</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20180911010215/https://www.tensorflow.org/install/migration</t>
+  </si>
+  <si>
+    <t>Decode png with jpeg function</t>
+  </si>
+  <si>
+    <t>so-tensorflow-keras</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/50056356/could-not-interpret-optimizer-identifier-error-in-keras</t>
+  </si>
+  <si>
+    <t>77k</t>
+  </si>
+  <si>
+    <t>3 years 3 months</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/49392972/error-when-checking-target-expected-dense-3-to-have-shape-3-but-got-array-wi</t>
+  </si>
+  <si>
+    <t>input shape higher than 2</t>
+  </si>
+  <si>
+    <t>change loss from binary to categorical</t>
+  </si>
+  <si>
+    <t>86k</t>
+  </si>
+  <si>
+    <t>3 year 5 months</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/47266383/save-and-load-weights-in-keras</t>
+  </si>
+  <si>
+    <t>121k</t>
+  </si>
+  <si>
+    <t>3 year 9 month</t>
+  </si>
+  <si>
+    <t>tf.merge_all</t>
+  </si>
+  <si>
+    <t>https://github.com/llSourcell/tensorflow_demo/issues/11</t>
+  </si>
+  <si>
+    <t>https://github.com/darksigma/Fundamentals-of-Deep-Learning-Book/issues/5</t>
+  </si>
+  <si>
+    <t>tf.unstack</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/tensorflow/issues/17266</t>
   </si>
 </sst>
 </file>
@@ -395,7 +492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +511,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -428,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,6 +568,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -768,28 +887,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="56.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="0.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="0.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="73.08984375" customWidth="1"/>
+    <col min="11" max="11" width="86.1796875" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" customWidth="1"/>
+    <col min="15" max="15" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -830,7 +950,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -868,8 +988,10 @@
       <c r="N2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O2" s="15"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -906,8 +1028,9 @@
       <c r="N3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -944,8 +1067,9 @@
       <c r="N4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -982,8 +1106,12 @@
       <c r="N5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="17"/>
+    </row>
+    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1020,8 +1148,9 @@
       <c r="N6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1052,8 +1181,9 @@
       <c r="N7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1090,8 +1220,9 @@
       <c r="N8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1128,8 +1259,9 @@
       <c r="N9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1166,8 +1298,9 @@
       <c r="N10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1198,8 +1331,9 @@
       <c r="N11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1236,8 +1370,9 @@
       <c r="N12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1274,8 +1409,9 @@
       <c r="N13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1315,8 +1451,9 @@
       <c r="N14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1351,7 +1488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1377,16 +1514,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="15" t="s">
         <v>93</v>
       </c>
       <c r="J20" t="s">
@@ -1404,6 +1542,106 @@
       <c r="N20" t="s">
         <v>96</v>
       </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
+        <v>17</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18">
+        <v>148</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
+        <v>18</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="18">
+        <v>131</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
+        <v>19</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18">
+        <v>181</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1422,8 +1660,132 @@
     <hyperlink ref="C14" r:id="rId13" xr:uid="{FA420AA9-8552-4CDD-BBB5-F42509B7E553}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{C5CD686A-1550-42AA-BC6A-F51039D638C5}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{C9EED821-5573-4E22-AF9D-80EBA6A03435}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{728C2456-055D-4DA5-831C-CEE4067610F4}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{9198ED76-4F87-43A1-9DEE-1958A2CD14C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBFFFE5-1F9B-408F-B03F-BACCA8088A11}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="9" max="9" width="44.1796875" customWidth="1"/>
+    <col min="10" max="10" width="26.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{32B73650-C426-470B-BB47-1A9D0606E1C4}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{C630401C-6DA5-419A-809E-5831F2787327}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{C8FBE4A8-863A-41F3-8791-EFECED65586A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0CB8E0-E509-4A62-83A6-0EF422705F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD8783-2A43-43BB-B29F-12C920738089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>https://github.com/tensorflow/tensorflow/issues/17266</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/34240703/what-are-logits-what-is-the-difference-between-softmax-and-softmax-cross-entrop</t>
+  </si>
+  <si>
+    <t>Using soft-max and cross-entropy when you should just use softmax_cross_entropy_with_logits</t>
   </si>
 </sst>
 </file>
@@ -887,29 +893,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="56.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="0.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="73.08984375" customWidth="1"/>
-    <col min="11" max="11" width="86.1796875" customWidth="1"/>
-    <col min="12" max="12" width="19.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" customWidth="1"/>
-    <col min="15" max="15" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="0.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" customWidth="1"/>
+    <col min="11" max="11" width="86.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -950,7 +956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -991,7 +997,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1030,7 +1036,7 @@
       </c>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1069,7 +1075,7 @@
       </c>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1111,7 +1117,7 @@
       </c>
       <c r="W5" s="17"/>
     </row>
-    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1150,7 +1156,7 @@
       </c>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1183,7 +1189,7 @@
       </c>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1222,7 +1228,7 @@
       </c>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1261,7 +1267,7 @@
       </c>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1300,7 +1306,7 @@
       </c>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1333,7 +1339,7 @@
       </c>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1372,7 +1378,7 @@
       </c>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1411,7 +1417,7 @@
       </c>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1453,7 +1459,7 @@
       </c>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1514,13 +1520,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
       <c r="P19" s="19"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>98</v>
       </c>
@@ -1552,7 +1558,7 @@
       </c>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>17</v>
       </c>
@@ -1581,7 +1587,7 @@
       </c>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>18</v>
       </c>
@@ -1614,7 +1620,7 @@
       </c>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>19</v>
       </c>
@@ -1642,6 +1648,17 @@
         <v>123</v>
       </c>
       <c r="P24" s="17"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1662,9 +1679,10 @@
     <hyperlink ref="C16" r:id="rId15" xr:uid="{C9EED821-5573-4E22-AF9D-80EBA6A03435}"/>
     <hyperlink ref="C21" r:id="rId16" xr:uid="{728C2456-055D-4DA5-831C-CEE4067610F4}"/>
     <hyperlink ref="C20" r:id="rId17" xr:uid="{9198ED76-4F87-43A1-9DEE-1958A2CD14C3}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{F01191AB-DF25-40D8-BFDE-92E91ADD1A0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -1672,18 +1690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBFFFE5-1F9B-408F-B03F-BACCA8088A11}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="9" max="9" width="44.1796875" customWidth="1"/>
-    <col min="10" max="10" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="44.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -1694,17 +1712,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>98</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1739,7 +1757,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>106</v>
       </c>
@@ -1755,27 +1773,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>

--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\workspace\700\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD8783-2A43-43BB-B29F-12C920738089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE854B-A37B-490E-9481-4B1E51395316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Using soft-max and cross-entropy when you should just use softmax_cross_entropy_with_logits</t>
+  </si>
+  <si>
+    <t>199k</t>
   </si>
 </sst>
 </file>
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,6 +1661,12 @@
       </c>
       <c r="J26" t="s">
         <v>130</v>
+      </c>
+      <c r="L26">
+        <v>409</v>
+      </c>
+      <c r="M26" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD8783-2A43-43BB-B29F-12C920738089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AA2BE-BD78-407E-8D0B-B52AE1261C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="135">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -429,6 +429,18 @@
   </si>
   <si>
     <t>Using soft-max and cross-entropy when you should just use softmax_cross_entropy_with_logits</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/58972225/tensorflow2-warning-using-tffunction</t>
+  </si>
+  <si>
+    <t>Using @tffunction with for loop and not converting steps into tensors</t>
+  </si>
+  <si>
+    <t>19k</t>
+  </si>
+  <si>
+    <t>1 year 9 months</t>
   </si>
 </sst>
 </file>
@@ -893,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +924,7 @@
     <col min="12" max="12" width="19.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="29.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -1115,6 +1127,7 @@
       <c r="O5" t="s">
         <v>110</v>
       </c>
+      <c r="P5" s="17"/>
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -1658,6 +1671,26 @@
       </c>
       <c r="J26" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AA2BE-BD78-407E-8D0B-B52AE1261C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C8C41-8BEB-4420-ABFC-5762D12BF218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Github" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Code" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="142">
   <si>
     <t>so-tensorflow</t>
   </si>
@@ -441,6 +442,27 @@
   </si>
   <si>
     <t>1 year 9 months</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>https://github.com/llSourcell/Pokemon_GAN/tree/29724063ba43f313696a611f58fc6b4834ffeef6</t>
+  </si>
+  <si>
+    <t>decode_image instead</t>
+  </si>
+  <si>
+    <t>decode_jpeg for png</t>
+  </si>
+  <si>
+    <t>https://github.com/dyelax/Adversarial_Video_Generation/issues/15</t>
+  </si>
+  <si>
+    <t>Put new ones in</t>
   </si>
 </sst>
 </file>
@@ -907,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D486027-A6A6-4557-9CAE-0CEFC0E0B330}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -916,8 +938,8 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="56.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="0.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="73.140625" customWidth="1"/>
     <col min="11" max="11" width="86.140625" customWidth="1"/>
@@ -1724,7 +1746,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1849,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1836,6 +1858,68 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{32B73650-C426-470B-BB47-1A9D0606E1C4}"/>
     <hyperlink ref="A11" r:id="rId2" xr:uid="{C630401C-6DA5-419A-809E-5831F2787327}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{C8FBE4A8-863A-41F3-8791-EFECED65586A}"/>
+    <hyperlink ref="A18" r:id="rId4" xr:uid="{3FC85F87-A3AF-4A49-9B07-FFABEA2D05E6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C686BAC-8449-4488-B963-A725B88E6D54}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{3DF8B563-B78F-4699-A30D-484F207AC38E}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{D6CD14F6-02FA-453C-A1AA-21A7C2C3FD60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/API Faults Taxonomy.xlsx
+++ b/API Faults Taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilso\OneDrive\Documents\Final Year Project\DL-BUG-FINDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C8C41-8BEB-4420-ABFC-5762D12BF218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB648B-3861-4471-85FC-0B8B1F184F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{50305C56-3506-426A-9490-D1BCFFFE2880}"/>
   </bookViews>
@@ -1869,7 +1869,7 @@
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
